--- a/Document/Instrument Library Introduction.xlsx
+++ b/Document/Instrument Library Introduction.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rex\Auto test common library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rex\Auto test GUI v0.4.0\Library\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13395" windowHeight="4560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13395" windowHeight="4560" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="6" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="Power_Meter" sheetId="3" r:id="rId4"/>
     <sheet name="Oscilloscope" sheetId="4" r:id="rId5"/>
     <sheet name="Source_Meter" sheetId="2" r:id="rId6"/>
-    <sheet name="Enable Control" sheetId="11" r:id="rId7"/>
-    <sheet name="Load Meter" sheetId="7" r:id="rId8"/>
+    <sheet name="Load Meter" sheetId="7" r:id="rId7"/>
+    <sheet name="Enable Control" sheetId="11" r:id="rId8"/>
     <sheet name="DAQ" sheetId="8" r:id="rId9"/>
     <sheet name="DMM" sheetId="10" r:id="rId10"/>
     <sheet name="Function_Generator" sheetId="9" r:id="rId11"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="426">
   <si>
     <t>Parameter</t>
   </si>
@@ -136,12 +136,6 @@
   </si>
   <si>
     <t>Set_Remote_Sense_State</t>
-  </si>
-  <si>
-    <t>Set_Measurement_On</t>
-  </si>
-  <si>
-    <t>Set_Measurement_Off</t>
   </si>
   <si>
     <t>Initiate_Measurement</t>
@@ -373,14 +367,6 @@
 &lt;count, int&gt;</t>
   </si>
   <si>
-    <t>&lt;function, str&gt; - "VOLTage" - Enable voltage function of measurement
-                - "CURRent" - Enable current function of measurement</t>
-  </si>
-  <si>
-    <t>&lt;function, str&gt; - "VOLTage" - Disable voltage function of measurement
-                - "CURRent" - Disable current function of measurement</t>
-  </si>
-  <si>
     <t>Set the source mode</t>
   </si>
   <si>
@@ -418,12 +404,6 @@
   </si>
   <si>
     <t>Set the state of concurrent measurement</t>
-  </si>
-  <si>
-    <t>Enable the function of measurement</t>
-  </si>
-  <si>
-    <t>Disable the function of measurement</t>
   </si>
   <si>
     <t>Measure voltage</t>
@@ -1077,15 +1057,6 @@
 &lt;timeout, float&gt;</t>
   </si>
   <si>
-    <t>&lt;trigger_channel, int&gt; - 1 to 4 (MSO58 suppot 8 channel)
-&lt;trigger_coupling, str&gt; - "DC", "HFREJ", "LFREJ", "AC", "NOISEREJ"
-&lt;trigger_delay, float&gt;
-&lt;trigger_position, int&gt;
-&lt;trigger_level, float&gt;
-&lt;trigger_slope, str&gt; - "Fall", "Rise", "Either"
-&lt;trigger_mode, str&gt; - "AUTO", "NORM", "SINGLE", "STOP"</t>
-  </si>
-  <si>
     <t>&lt;channel, int&gt; - 1 to 4 (MSO58 suppot 8 channel)</t>
   </si>
   <si>
@@ -1231,6 +1202,272 @@
   </si>
   <si>
     <t>Config_temp</t>
+  </si>
+  <si>
+    <t>Get_Voltage</t>
+  </si>
+  <si>
+    <t>Get the voltage of the configuration</t>
+  </si>
+  <si>
+    <t>Set_Program_Mode</t>
+  </si>
+  <si>
+    <t>&lt;mode, str&gt; - "LIST", "STEP", "CP"</t>
+  </si>
+  <si>
+    <t>Set the program mode</t>
+  </si>
+  <si>
+    <t>Set_Program_Run_State</t>
+  </si>
+  <si>
+    <t>Set the state of the program mode</t>
+  </si>
+  <si>
+    <t>Set_Program_Step_Start_V</t>
+  </si>
+  <si>
+    <t>&lt;start_v, float&gt;</t>
+  </si>
+  <si>
+    <t>Set the start voltage of the step mode</t>
+  </si>
+  <si>
+    <t>Set_Program_Step_End_V</t>
+  </si>
+  <si>
+    <t>&lt;end_v, float&gt;</t>
+  </si>
+  <si>
+    <t>Set the end voltage of the step mode</t>
+  </si>
+  <si>
+    <t>Set_Program_Step_Time</t>
+  </si>
+  <si>
+    <t>&lt;hour, int&gt;
+&lt;minute, int&gt;
+&lt;second, int&gt;</t>
+  </si>
+  <si>
+    <t>Set the step time of the program mode</t>
+  </si>
+  <si>
+    <t>&lt;voltage/current/power, float&gt;</t>
+  </si>
+  <si>
+    <t>Set_Load_Short_State</t>
+  </si>
+  <si>
+    <t>Set the state of the load short</t>
+  </si>
+  <si>
+    <t>Set_Resistance</t>
+  </si>
+  <si>
+    <t>&lt;resistance, float&gt;</t>
+  </si>
+  <si>
+    <t>Set the resistance of the CR mode</t>
+  </si>
+  <si>
+    <t>Set_Resistance_Slew_Rate</t>
+  </si>
+  <si>
+    <t>&lt;slope, str&gt; - "RISE", "FALL"</t>
+  </si>
+  <si>
+    <t>Set the resistance slew rate of the CR mode</t>
+  </si>
+  <si>
+    <t>&lt;trigger_channel, int&gt; - 1 to 4 (MSO58 suppot 8 channel)
+&lt;trigger_coupling, str&gt; - "DC", "HFREJ", "LFREJ", "AC", "NOISEREJ"
+&lt;trigger_delay, float&gt;
+&lt;trigger_position, int&gt; - 0 to 100
+&lt;trigger_level, float&gt;
+&lt;trigger_slope, str&gt; - "Fall", "Rise", "Either"
+&lt;trigger_mode, str&gt; - "AUTO", "NORM", "SINGLE", "STOP"</t>
+  </si>
+  <si>
+    <t>Get_Channel_Range</t>
+  </si>
+  <si>
+    <t>&lt;range, float&gt;</t>
+  </si>
+  <si>
+    <t>Get the range of the channel</t>
+  </si>
+  <si>
+    <t>Get_Cursor_Voltage</t>
+  </si>
+  <si>
+    <t>&lt;x, int&gt; - 1 or 2</t>
+  </si>
+  <si>
+    <t>Get the voltage of cursor</t>
+  </si>
+  <si>
+    <t>Get_Cursor_Function</t>
+  </si>
+  <si>
+    <t>&lt;function, float&gt;</t>
+  </si>
+  <si>
+    <t>Get the function of the cursor</t>
+  </si>
+  <si>
+    <t>Get_Probe_Degauss_State</t>
+  </si>
+  <si>
+    <t>Get the degauss state of the probe</t>
+  </si>
+  <si>
+    <t>Get_Trigger_Slope</t>
+  </si>
+  <si>
+    <t>&lt;slope, str&gt;</t>
+  </si>
+  <si>
+    <t>Get the slope of the trigger</t>
+  </si>
+  <si>
+    <t>Measurement_Global_State</t>
+  </si>
+  <si>
+    <t>&lt;ch, int&gt;
+&lt;state, bool&gt;</t>
+  </si>
+  <si>
+    <t>Set the global state of the measurement</t>
+  </si>
+  <si>
+    <t>Measurement_Gate_Mode</t>
+  </si>
+  <si>
+    <t>&lt;mode, str&gt; - "NONE", "SCREEN", "CURSor", "LOGic", "SEARch"</t>
+  </si>
+  <si>
+    <t>Set the mode of the gate</t>
+  </si>
+  <si>
+    <t>Set_Channel_Range</t>
+  </si>
+  <si>
+    <t>&lt;channel, int&gt;
+&lt;channel_range, int&gt;</t>
+  </si>
+  <si>
+    <t>Set the range of the channel</t>
+  </si>
+  <si>
+    <t>Set_Channel_Range_Mode</t>
+  </si>
+  <si>
+    <t>&lt;channel, int&gt;
+&lt;range_mode, str&gt; - "AUTO", "MANual"</t>
+  </si>
+  <si>
+    <t>Set the range mode of the channel</t>
+  </si>
+  <si>
+    <t>Set_Cursor_Function</t>
+  </si>
+  <si>
+    <t>&lt;function, str&gt; - "SCREEN", "WAVEFORM", "VBArs", "HBArs"</t>
+  </si>
+  <si>
+    <t>Set the function of the cursor</t>
+  </si>
+  <si>
+    <t>Set_Cursor_Position</t>
+  </si>
+  <si>
+    <t>&lt;x1, float&gt;
+&lt;x2, float&gt;
+&lt;y1, float&gt;
+&lt;y2, float&gt;</t>
+  </si>
+  <si>
+    <t>Set the position of the cursor</t>
+  </si>
+  <si>
+    <t>Set_Cursor_Source</t>
+  </si>
+  <si>
+    <t>&lt;source1, int&gt;
+&lt;source2, int&gt;</t>
+  </si>
+  <si>
+    <t>Set the source of the cursor</t>
+  </si>
+  <si>
+    <t>Set_Cursor_Split_Mode</t>
+  </si>
+  <si>
+    <t>&lt;mode, str&gt; - "SAME", "SPLIT"</t>
+  </si>
+  <si>
+    <t>Set the split mode of the cursor</t>
+  </si>
+  <si>
+    <t>Set_Cursor_State</t>
+  </si>
+  <si>
+    <t>Set the state of the cursor</t>
+  </si>
+  <si>
+    <t>Set_Probe_Degauss</t>
+  </si>
+  <si>
+    <t>Set the probe degauss</t>
+  </si>
+  <si>
+    <t>&lt;source_mode, str&gt; - "VOLTage", "CURRent", "MEMory"
+&lt;source_voltage_limit, float&gt;
+&lt;source_voltage_range, float&gt;
+&lt;source_voltage, float&gt;
+&lt;sense_current_limit, float&gt;
+&lt;sense_current_range, float&gt;
+&lt;remote_state, bool&gt;
+&lt;beeper_state, bool&gt;</t>
+  </si>
+  <si>
+    <t>Configuration of the source meter</t>
+  </si>
+  <si>
+    <t>Measurement configuration of the source meter</t>
+  </si>
+  <si>
+    <t>Set all measurement state</t>
+  </si>
+  <si>
+    <t>Set the arm count</t>
+  </si>
+  <si>
+    <t>Set source meter to idel state</t>
+  </si>
+  <si>
+    <t>&lt;function, str&gt; - "VOLTage" - Enable voltage function of measurement
+                - "CURRent" - Enable current function of measurement
+&lt;state, bool&gt;</t>
+  </si>
+  <si>
+    <t>Set the function of measurement</t>
+  </si>
+  <si>
+    <t>Set_Output_Level</t>
+  </si>
+  <si>
+    <t>&lt;level, float&gt;
+&lt;high_voltage, float&gt;
+&lt;low_voltage, float&gt;</t>
+  </si>
+  <si>
+    <t>Set high or low level to the output</t>
+  </si>
+  <si>
+    <t>Trigger</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1556,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1508,11 +1745,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1618,6 +1866,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1901,7 +2161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1915,22 +2175,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1938,15 +2198,15 @@
         <v>44669</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2011,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -2025,35 +2285,35 @@
         <v>3</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="12" customFormat="1" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="12" customFormat="1" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
@@ -2061,13 +2321,13 @@
         <v>14</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
@@ -2075,18 +2335,18 @@
         <v>15</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>3</v>
@@ -2126,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="12" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
@@ -2140,152 +2400,152 @@
         <v>3</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="12" customFormat="1" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="33" t="s">
         <v>3</v>
@@ -2294,7 +2554,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2307,10 +2567,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -2324,7 +2584,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -2333,35 +2593,35 @@
         <v>1</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="209.25" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>3</v>
+        <v>362</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
@@ -2369,13 +2629,13 @@
         <v>18</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -2389,222 +2649,222 @@
         <v>3</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
-        <v>89</v>
+        <v>346</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>193</v>
+        <v>3</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="B10" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
-        <v>88</v>
-      </c>
       <c r="B11" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>104</v>
+      <c r="D11" s="19" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
-        <v>10</v>
+      <c r="A12" s="21" t="s">
+        <v>86</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>96</v>
+      <c r="D12" s="22" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="23" t="s">
-        <v>14</v>
-      </c>
       <c r="B16" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>193</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>201</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>19</v>
@@ -2613,35 +2873,119 @@
         <v>3</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
-        <v>90</v>
+        <v>196</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>3</v>
+        <v>187</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A28" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2652,15 +2996,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="70" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="130.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.7109375" style="12" customWidth="1"/>
     <col min="4" max="4" width="97.42578125" style="12" bestFit="1" customWidth="1"/>
@@ -2670,7 +3012,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="9"/>
+      <c r="A1" s="26"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2678,194 +3020,194 @@
         <v>1</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="232.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
-        <v>187</v>
+      <c r="A2" s="38" t="s">
+        <v>181</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="27" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="14" t="s">
+    <row r="13" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="40" t="s">
         <v>151</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
-        <v>157</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>19</v>
@@ -2874,12 +3216,12 @@
         <v>3</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
-        <v>156</v>
+      <c r="A16" s="40" t="s">
+        <v>150</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>19</v>
@@ -2888,35 +3230,77 @@
         <v>3</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="s">
-        <v>209</v>
+      <c r="A17" s="41" t="s">
+        <v>365</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>3</v>
+        <v>366</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>210</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="17" t="s">
-        <v>73</v>
+      <c r="A18" s="41" t="s">
+        <v>368</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>3</v>
+        <v>369</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>92</v>
+      <c r="D18" s="27" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2929,9 +3313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2951,26 +3333,26 @@
         <v>1</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="162.75" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="15"/>
@@ -2987,152 +3369,152 @@
         <v>3</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="162.75" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>3</v>
@@ -3149,11 +3531,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3173,7 +3553,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -3187,52 +3567,52 @@
         <v>3</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="19" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="232.5" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="180.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>3</v>
@@ -3241,493 +3621,703 @@
         <v>3</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>215</v>
+        <v>372</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>3</v>
+        <v>373</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>216</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>217</v>
+        <v>375</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>3</v>
+        <v>376</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>218</v>
+        <v>5</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
-        <v>219</v>
+        <v>378</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>193</v>
+        <v>379</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>331</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
-        <v>62</v>
+        <v>209</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>3</v>
+        <v>309</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A20" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="232.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B22" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="37" t="s">
         <v>221</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="232.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>317</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="93" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
-        <v>230</v>
+        <v>64</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="93" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
-        <v>232</v>
+        <v>63</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>167</v>
+        <v>311</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>321</v>
+        <v>171</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
-        <v>234</v>
+        <v>54</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>336</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="69.75" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
-        <v>61</v>
+        <v>224</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>185</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
-        <v>48</v>
+        <v>226</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>323</v>
+        <v>161</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>170</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>19</v>
+        <v>313</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>168</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
-        <v>53</v>
+        <v>392</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>54</v>
+        <v>393</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>338</v>
+        <v>394</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
-        <v>236</v>
+        <v>395</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>315</v>
+        <v>396</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>339</v>
+        <v>397</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="s">
-        <v>237</v>
+        <v>75</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>238</v>
+        <v>161</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="37" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>59</v>
+        <v>314</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>340</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="13" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>180</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="16" t="s">
-        <v>60</v>
+      <c r="A38" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>181</v>
+        <v>315</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="31" t="s">
-        <v>241</v>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A39" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>242</v>
+        <v>178</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>341</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="17" t="s">
-        <v>243</v>
+      <c r="A40" s="13" t="s">
+        <v>398</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>324</v>
+        <v>399</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="17" t="s">
-        <v>73</v>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="93" x14ac:dyDescent="0.35">
+      <c r="A41" s="13" t="s">
+        <v>401</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>3</v>
+        <v>402</v>
       </c>
       <c r="C41" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3738,17 +4328,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="62.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="169" style="12" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="47.42578125" style="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="78.5703125" style="27" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="12"/>
   </cols>
@@ -3762,7 +4350,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -3776,283 +4364,381 @@
         <v>3</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="69.75" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="186" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>106</v>
+        <v>414</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="116.25" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
-        <v>21</v>
+        <v>294</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>5</v>
+        <v>295</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>113</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>9</v>
+        <v>297</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>3</v>
+        <v>202</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>114</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
-        <v>23</v>
+      <c r="A6" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23" t="s">
-        <v>29</v>
+      <c r="A10" s="18" t="s">
+        <v>300</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="27" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="27" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="138" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>111</v>
-      </c>
       <c r="C17" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="138" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="C22" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A25" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4063,10 +4749,448 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.7109375" customWidth="1"/>
+    <col min="2" max="2" width="159.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="93.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="12" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="26"/>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="12" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="12" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="12" customFormat="1" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A18" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="27"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D28">
+    <sortCondition ref="A7"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4086,7 +5210,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -4100,26 +5224,26 @@
         <v>3</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="12" customFormat="1" ht="302.25" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>3</v>
@@ -4128,12 +5252,12 @@
         <v>19</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>3</v>
@@ -4142,26 +5266,26 @@
         <v>3</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>19</v>
@@ -4170,12 +5294,12 @@
         <v>3</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>3</v>
@@ -4184,12 +5308,12 @@
         <v>3</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>19</v>
@@ -4198,46 +5322,46 @@
         <v>5</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="12" customFormat="1" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>30</v>
+        <v>422</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>11</v>
+        <v>423</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>119</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>117</v>
@@ -4245,485 +5369,73 @@
     </row>
     <row r="13" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="27"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="62.7109375" customWidth="1"/>
-    <col min="2" max="2" width="159.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="93.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="26"/>
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="27" t="s">
+      <c r="D15" s="27" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="12" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="12" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="12" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>303</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>74</v>
+        <v>425</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>130</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="12" customFormat="1" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="27"/>
+      <c r="D17" s="27"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D28">
-    <sortCondition ref="A7"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4753,7 +5465,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -4767,26 +5479,26 @@
         <v>3</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="12" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="30"/>
@@ -4797,46 +5509,46 @@
         <v>14</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>3</v>

--- a/Document/Instrument Library Introduction.xlsx
+++ b/Document/Instrument Library Introduction.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rex\Auto test GUI v0.4.0\Library\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rex\Auto test GUI v0.4.1\Library\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13395" windowHeight="4560" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13395" windowHeight="4560" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="6" r:id="rId1"/>
@@ -1076,12 +1076,6 @@
 &lt;signaltype, str&gt;, &lt;outputin, str&gt;, &lt;referencetype, str&gt;</t>
   </si>
   <si>
-    <t>&lt;image_format, str&gt; - "BMP", "JPEG", "PNG", "TIFF"
-&lt;background_color, str&gt; - "BLACK", "WHITE"
-&lt;destination, str&gt; - "PRINTER", "FILE", "REMOTE"
-&lt;area, str&gt; , &lt;port_name, str&gt; - "GRIDAREAONLY", "DSOWINDOW", "FULLSCREEN"</t>
-  </si>
-  <si>
     <t>&lt;channel, int&gt; - 1 to 8
 &lt;mode, str&gt;    - "AC", "DC", "DC50", "DCREJ", "GND", "IAC", "IDC"</t>
   </si>
@@ -1468,6 +1462,13 @@
   </si>
   <si>
     <t>Trigger</t>
+  </si>
+  <si>
+    <t>&lt;image_format, str&gt; - "BMP", "JPEG", "PNG", "TIFF"
+&lt;background_color, str&gt; - "BLACK", "WHITE"
+&lt;destination, str&gt; - "PRINTER", "FILE", "REMOTE"
+&lt;area, str&gt; - "GRIDAREAONLY", "DSOWINDOW", "FULLSCREEN"
+&lt;port_name, str&gt; - "NET", "GPIB" - Only network use "NET", other port use "GPIB"</t>
   </si>
 </sst>
 </file>
@@ -2618,10 +2619,10 @@
         <v>184</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
@@ -2654,7 +2655,7 @@
     </row>
     <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>3</v>
@@ -2663,7 +2664,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -2906,21 +2907,21 @@
     </row>
     <row r="24" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="C24" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="19" t="s">
         <v>349</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>19</v>
@@ -2929,49 +2930,49 @@
         <v>3</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="C26" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="19" t="s">
         <v>354</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="C27" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="19" t="s">
         <v>357</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="C28" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="19" t="s">
         <v>360</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -3193,7 +3194,7 @@
     </row>
     <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="41" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>19</v>
@@ -3202,7 +3203,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -3235,30 +3236,30 @@
     </row>
     <row r="17" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="C17" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="27" t="s">
         <v>366</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="C18" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="27" t="s">
         <v>369</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -3341,7 +3342,7 @@
         <v>181</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -3533,7 +3534,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3587,13 +3590,13 @@
         <v>306</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="180.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3601,7 +3604,7 @@
         <v>205</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>3</v>
@@ -3640,44 +3643,44 @@
     </row>
     <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>308</v>
       </c>
       <c r="C8" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="D8" s="37" t="s">
         <v>373</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>375</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>376</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="37" t="s">
         <v>379</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -3696,7 +3699,7 @@
     </row>
     <row r="12" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>187</v>
@@ -3705,7 +3708,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -3719,7 +3722,7 @@
         <v>212</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -3733,21 +3736,21 @@
         <v>187</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="15" t="s">
+      <c r="D15" s="37" t="s">
         <v>384</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -3766,16 +3769,16 @@
     </row>
     <row r="17" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="C17" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="37" t="s">
         <v>387</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -3794,16 +3797,16 @@
     </row>
     <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="C19" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="37" t="s">
         <v>390</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="69.75" x14ac:dyDescent="0.35">
@@ -3817,7 +3820,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="232.5" x14ac:dyDescent="0.35">
@@ -3859,21 +3862,21 @@
         <v>3</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="93" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="116.25" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>311</v>
+        <v>425</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -3881,13 +3884,13 @@
         <v>223</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -3937,7 +3940,7 @@
         <v>53</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>3</v>
@@ -3957,7 +3960,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -3971,7 +3974,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -3979,41 +3982,41 @@
         <v>227</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="C33" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="37" t="s">
         <v>393</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="C34" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="37" t="s">
         <v>396</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="37" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -4035,7 +4038,7 @@
         <v>55</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>3</v>
@@ -4055,7 +4058,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -4063,13 +4066,13 @@
         <v>50</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="69.75" x14ac:dyDescent="0.35">
@@ -4088,63 +4091,63 @@
     </row>
     <row r="40" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="B40" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="C40" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="37" t="s">
         <v>399</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="93" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="B41" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="C41" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="37" t="s">
         <v>402</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="B42" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="C42" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="37" t="s">
         <v>405</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="37" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="B43" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="C43" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="37" t="s">
         <v>408</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="37" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>19</v>
@@ -4153,7 +4156,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="37" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -4161,7 +4164,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>3</v>
@@ -4186,7 +4189,7 @@
     </row>
     <row r="47" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>187</v>
@@ -4195,7 +4198,7 @@
         <v>3</v>
       </c>
       <c r="D47" s="37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -4209,7 +4212,7 @@
         <v>3</v>
       </c>
       <c r="D48" s="37" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -4223,7 +4226,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="37" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -4251,7 +4254,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="37" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -4293,7 +4296,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -4301,7 +4304,7 @@
         <v>237</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>3</v>
@@ -4372,13 +4375,13 @@
         <v>181</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>414</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="116.25" x14ac:dyDescent="0.35">
@@ -4392,7 +4395,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -4406,7 +4409,7 @@
         <v>202</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -4476,7 +4479,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -4504,7 +4507,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -4532,7 +4535,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="69.75" x14ac:dyDescent="0.35">
@@ -4540,13 +4543,13 @@
         <v>301</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="27" t="s">
         <v>420</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -4812,7 +4815,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -4896,7 +4899,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -4966,7 +4969,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -5008,7 +5011,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -5092,7 +5095,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -5120,7 +5123,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -5189,7 +5192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -5327,16 +5330,16 @@
     </row>
     <row r="10" spans="1:4" s="12" customFormat="1" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="B10" s="33" t="s">
         <v>422</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="C10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>423</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -5411,7 +5414,7 @@
     </row>
     <row r="16" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>3</v>
@@ -5420,7 +5423,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -5487,7 +5490,7 @@
         <v>248</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>3</v>
@@ -5498,7 +5501,7 @@
     </row>
     <row r="4" spans="1:4" s="12" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="30"/>

--- a/Document/Instrument Library Introduction.xlsx
+++ b/Document/Instrument Library Introduction.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rex\Auto test GUI v0.4.1\Library\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rex\Auto test GUI v0.7.0\Library\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13395" windowHeight="4560" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13395" windowHeight="4560" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="536">
   <si>
     <t>Parameter</t>
   </si>
@@ -886,9 +886,6 @@
 &lt;impedance, str&gt; - &lt;ohms&gt;, "INFinity", "MINimum", "MAXimum"</t>
   </si>
   <si>
-    <t>Set_Offset</t>
-  </si>
-  <si>
     <t>&lt;channel, int&gt;
 &lt;offset, float&gt;</t>
   </si>
@@ -906,21 +903,9 @@
     <t>Set_Ramp_Symmetry</t>
   </si>
   <si>
-    <t>&lt;channel, int&gt;
-symmetry, float&gt;</t>
-  </si>
-  <si>
-    <t>&lt;channel, int&gt;
-duty, float&gt;</t>
-  </si>
-  <si>
     <t>Set_Unit</t>
   </si>
   <si>
-    <t>&lt;channel, int&gt;
-&lt;unit, str&gt; - "VPP", "VRMS"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Set amplitude of the output</t>
   </si>
   <si>
@@ -931,9 +916,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Set impedance of the output</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Set offset of the output</t>
   </si>
   <si>
     <t xml:space="preserve"> Set state of the output</t>
@@ -1061,10 +1043,6 @@
   </si>
   <si>
     <t>&lt;index, int&gt;
-&lt;statistic_method, int&gt; - "LAST", "MEAN", "MIN", "MAX", "NUM"</t>
-  </si>
-  <si>
-    <t>&lt;index, int&gt;
 &lt;measurement, str&gt; - "Amplitude", "Base", "Maximum", "Mean", "Minimum", "Peak to peak", "RMS", 
                      "Std dev", "Top", "Delay", "Dperiod@level", "Dtime@level", "Duty cycle",
                      "Duty cycle@level", "Edge@level", "Fall time", "Fall 80-20%", "Skew",
@@ -1189,15 +1167,6 @@
 &lt;cx_label, str&gt; - x = 1 to 4 (MSO58 suppot 8 channel)</t>
   </si>
   <si>
-    <t>&lt;mode, str&gt; - "AC", "DC"
-&lt;mode_range, float&gt; 
-&lt;mode_resolution, float&gt;
-&lt;channel, int&gt;</t>
-  </si>
-  <si>
-    <t>Config_temp</t>
-  </si>
-  <si>
     <t>Get_Voltage</t>
   </si>
   <si>
@@ -1294,9 +1263,6 @@
   </si>
   <si>
     <t>Get_Cursor_Voltage</t>
-  </si>
-  <si>
-    <t>&lt;x, int&gt; - 1 or 2</t>
   </si>
   <si>
     <t>Get the voltage of cursor</t>
@@ -1470,12 +1436,508 @@
 &lt;area, str&gt; - "GRIDAREAONLY", "DSOWINDOW", "FULLSCREEN"
 &lt;port_name, str&gt; - "NET", "GPIB" - Only network use "NET", other port use "GPIB"</t>
   </si>
+  <si>
+    <t>Auto_set</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;horizontal_state, bool&gt;
+&lt;vertical_state, bool&gt;
+&lt;trigger_state, bool&gt;
+&lt;acquisition_state, bool&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select auto setting item</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Persistence_Config</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;mode, str&gt; - "OFF", "AUTO", "INFPersist", "INFInite", "VARpersist", "CLEAR"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Persistence configuration</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get_Channel_Voltage_Offset</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;channel, int&gt; - 1 to 4 (MSO58 suppot 8 channel)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;x, int&gt; - 1 or 2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;offset, float&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get the offset of the channel</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get_Channel_Voltage_Scale</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;channel, int&gt; - 1 to 4 (MSO58 suppot 8 channel)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;scale, float&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get the scale of the channel</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get_Measurement_Value</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;index, int&gt;
+&lt;statistic_method, int&gt; - "LAST", "MEAN", "MIN", "MAX", "NUM"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;index, int&gt;
+&lt;measurement, str&gt; - "Amplitude", "Base", "Maximum", "Mean", "Minimum", "Peak to peak", "RMS", 
+                     "Std dev", "Top", "Delay", "Dperiod@level", "Dtime@level", "Duty cycle",
+                     "Duty cycle@level", "Edge@level</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;value, float&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get the measurement of the value</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_Persistence_Config</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;state, bool&gt;
+&lt;saturation, int&gt; - 0 to 100
+&lt;time, str&gt; - 0.5, 1, 2, 5, 10, 20, "infinite"
+&lt;color, str&gt; - "ANALOG", "COLOR_GRADED"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Config_cur</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;mode, str&gt; - "AC", "DC"
+&lt;mode_range, float&gt; 
+&lt;mode_resolution, float&gt;
+&lt;channel, int&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Configuration of DAQ current mode</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initiate_Measurement</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Take DAQ out of idle state</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get_Measure_Data</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get all measurement data</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get_Trigger_Status</t>
+  </si>
+  <si>
+    <t>Check DAQ status</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;status, str&gt; - "Idle", "Running", "Waiting", "Empty", "Paused", "Building", "Failed", "Aborting", "Aborted", "Success"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Measure_VNPLC</t>
+  </si>
+  <si>
+    <t>Measure value of the channel by NPLC</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_Sense_Average</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;state, bool&gt;
+&lt;count, int&gt;
+&lt;average_type, str&gt; - "REPeat", "MOVing"
+&lt;channel, int&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Configuration of average</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_Sense_VNPLC</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;nplc, int&gt;
+&lt;channel, int&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_Sense_INPLC</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;channel, int&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_Trigger_Limit_Lower</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;limit_lower, float&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_Trigger_Limit_Upper</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;limit_upper, float&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_Trigger_Mode</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;mode, str&gt; - "OFF", "UPPer", "LOWer", "WINDow"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set voltage NPLC</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set current NPLC</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set trigger channel</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set trigger limit lower</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set trigger limit upper</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set trigger mode</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Measure_VNPLC</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;nplc, int&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set voltage NPLC</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Measure_INPLC</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_Current_Terminals</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;mode, str&gt;
+&lt;terminals, int&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Configuration of terminal</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load_Memory_Trace</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;channel, int&gt;
+&lt;source, str&gt; - "MEMORY", "USB"
+&lt;file_name, str&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load custom waveform file (.tfwx)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_Burst_Cycle</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;channel, str&gt;
+&lt;cycle, int&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;None&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set burst cycle</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_Burst_Idle_State</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;channel, int&gt;
+&lt;state, bool&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_Burst_State</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_Phase_Synchronize</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Synchronize phase of 2 channel</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_Pulse_Hold</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;channel, int&gt;
+&lt;duty, float&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;channel, int&gt;
+&lt;hold, str&gt; - "WIDTh", "DUTY"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set pulse hold</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_Pulse_Lead_Delay</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;channel, int&gt;
+symmetry, float&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set pulse delay</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_Pulse_Leading</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;channel, int&gt;
+&lt;delay, str&gt; - units: ns, us, ms, s  for example "20ms"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set pulse leading</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_Pulse_Period</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;channel, int&gt;
+&lt;leading, str&gt; - units: ns, us, ms, s for example "200ns"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;channel, int&gt;
+&lt;period, str&gt; - units: ns, us, ms, s for example "200ns"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set pulse period</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_Pulse_Trailing</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;channel, int&gt;
+&lt;trailing, str&gt; - units: ns, us, ms, s for example "200ns"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_Pulse_Width</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set pulse trailing</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set pulse width</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;channel, int&gt;
+&lt;width, str&gt; - units: ns, us, ms, s for example "200ns"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_Trigger_Source</t>
+  </si>
+  <si>
+    <t>&lt;channel, int&gt;
+&lt;unit, str&gt; - "VPP", "VRMS"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;trigger_source, str&gt; - "TIMer", "EXTernal"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set trigger source</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_Voltage_Amplitude</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;channel, int&gt;
+&lt;ampliude, float&gt;
+&lt;unit, str&gt; - "VPP", "VRMS", "DBM"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_Voltage_High</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set voltage amplitude</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;channel, int&gt;
+&lt;high, str&gt; - units: "mV", "V" for example "1V"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set voltage high</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_Voltage_Low</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;channel, int&gt;
+&lt;low, str&gt; - units: "mV", "V" for example "1V"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set voltage low</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_Voltage_Offset</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Set voltage offset</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manual_Trigger</t>
+  </si>
+  <si>
+    <t>Manual trigger one time</t>
+  </si>
+  <si>
+    <t>&lt;trigger_slope, str&gt; - "POSitive", "NEGative"</t>
+  </si>
+  <si>
+    <t>Set trigger slope</t>
+  </si>
+  <si>
+    <t>Set_Trigger_Timer</t>
+  </si>
+  <si>
+    <t>&lt;trigger_interval, float&gt;</t>
+  </si>
+  <si>
+    <t>Set trigger timer (interval)</t>
+  </si>
+  <si>
+    <t>Set_Burst_Trigger_Delay</t>
+  </si>
+  <si>
+    <t>&lt;trigger_dealy, float&gt;</t>
+  </si>
+  <si>
+    <t>Set burst mode state</t>
+  </si>
+  <si>
+    <t>Set trigger dealy on burst mode</t>
+  </si>
+  <si>
+    <t>Set idle state on burst mode</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1529,6 +1991,13 @@
       <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2166,7 +2635,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" style="8" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" style="8" customWidth="1"/>
@@ -2174,7 +2643,7 @@
     <col min="6" max="6" width="29.85546875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
@@ -2194,7 +2663,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="3">
         <v>44669</v>
       </c>
@@ -2210,7 +2679,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -2218,7 +2687,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -2226,7 +2695,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -2234,7 +2703,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -2243,27 +2712,27 @@
       <c r="F6" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="72.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="12" customFormat="1" ht="23.25">
       <c r="A1" s="26"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -2275,7 +2744,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
@@ -2289,40 +2758,40 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="12" customFormat="1" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="12" customFormat="1" ht="116.25">
       <c r="A3" s="23" t="s">
         <v>248</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="12" customFormat="1" ht="69.75" x14ac:dyDescent="0.35">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="12" customFormat="1" ht="116.25">
       <c r="A4" s="23" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="46.5">
       <c r="A5" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>251</v>
@@ -2331,54 +2800,97 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="23.25">
       <c r="A6" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="23.25">
+      <c r="A7" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="46.5">
+      <c r="A8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="C6" s="32" t="s">
+      <c r="B8" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D8" s="36" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+    <row r="9" spans="1:4" ht="46.5">
+      <c r="A9" s="35" t="s">
+        <v>474</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="60" customHeight="1">
+      <c r="A10" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="36"/>
+      <c r="B10" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="36"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="114.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="55.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="12" customFormat="1" ht="46.5">
       <c r="A1" s="26"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -2390,7 +2902,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="12" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="12" customFormat="1" ht="46.5">
       <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
@@ -2404,165 +2916,433 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="12" customFormat="1" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="12" customFormat="1" ht="69.75">
       <c r="A3" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="12" customFormat="1" ht="46.5">
+      <c r="A4" s="23" t="s">
+        <v>524</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="12" customFormat="1" ht="46.5">
+      <c r="A5" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="12" customFormat="1" ht="46.5">
+      <c r="A6" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>485</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="12" customFormat="1" ht="46.5">
+      <c r="A7" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>485</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="12" customFormat="1" ht="46.5">
+      <c r="A8" s="23" t="s">
+        <v>531</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>532</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="12" customFormat="1" ht="69.75">
+      <c r="A9" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
+      <c r="B9" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
+      <c r="A10" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B10" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="B5" s="33" t="s">
+      <c r="C10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
+      <c r="A11" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
+      <c r="C11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
+      <c r="A12" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B12" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
+      <c r="C12" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
+      <c r="A13" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B13" s="33" t="s">
         <v>161</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>3</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
+      <c r="A14" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
+      <c r="A16" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>490</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
+      <c r="A17" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>491</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
+      <c r="A18" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>497</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
+      <c r="A19" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>500</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
+      <c r="A20" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>501</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
+      <c r="A21" s="23" t="s">
+        <v>503</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
+      <c r="A22" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>508</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
+      <c r="A23" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
+      <c r="A24" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>526</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
+      <c r="A25" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>511</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
+      <c r="A26" s="23" t="s">
+        <v>528</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>529</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
+      <c r="A27" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>510</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="12" customFormat="1" ht="69.75">
+      <c r="A28" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>514</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
+      <c r="A29" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
+      <c r="A30" s="23" t="s">
+        <v>519</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>520</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
+      <c r="A31" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
+      <c r="A32" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:D13">
     <sortCondition ref="A1"/>
   </sortState>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2570,11 +3350,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25"/>
   <cols>
     <col min="1" max="1" width="62.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.7109375" style="12" customWidth="1"/>
@@ -2583,7 +3361,7 @@
     <col min="5" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="10" t="s">
         <v>238</v>
       </c>
@@ -2597,12 +3375,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="209.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="209.25">
       <c r="A2" s="18" t="s">
         <v>181</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>3</v>
@@ -2611,7 +3389,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="46.5">
       <c r="A3" s="18" t="s">
         <v>183</v>
       </c>
@@ -2619,13 +3397,13 @@
         <v>184</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="46.5">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
@@ -2639,7 +3417,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="60" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
@@ -2653,9 +3431,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="60" customHeight="1">
       <c r="A6" s="18" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>3</v>
@@ -2664,10 +3442,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="60" customHeight="1">
       <c r="A7" s="18" t="s">
         <v>87</v>
       </c>
@@ -2681,7 +3459,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="69.95" customHeight="1">
       <c r="A8" s="18" t="s">
         <v>4</v>
       </c>
@@ -2695,7 +3473,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="69.95" customHeight="1">
       <c r="A9" s="18" t="s">
         <v>85</v>
       </c>
@@ -2709,7 +3487,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="69.95" customHeight="1">
       <c r="A10" s="18" t="s">
         <v>6</v>
       </c>
@@ -2723,7 +3501,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="69.95" customHeight="1">
       <c r="A11" s="20" t="s">
         <v>8</v>
       </c>
@@ -2737,7 +3515,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="69.95" customHeight="1">
       <c r="A12" s="21" t="s">
         <v>86</v>
       </c>
@@ -2751,7 +3529,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="69.95" customHeight="1">
       <c r="A13" s="23" t="s">
         <v>10</v>
       </c>
@@ -2765,7 +3543,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="69.95" customHeight="1">
       <c r="A14" s="23" t="s">
         <v>12</v>
       </c>
@@ -2779,7 +3557,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="69.95" customHeight="1">
       <c r="A15" s="23" t="s">
         <v>13</v>
       </c>
@@ -2793,7 +3571,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="69.95" customHeight="1">
       <c r="A16" s="23" t="s">
         <v>33</v>
       </c>
@@ -2807,7 +3585,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="60" customHeight="1">
       <c r="A17" s="23" t="s">
         <v>14</v>
       </c>
@@ -2821,7 +3599,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="60" customHeight="1">
       <c r="A18" s="23" t="s">
         <v>15</v>
       </c>
@@ -2835,7 +3613,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="60" customHeight="1">
       <c r="A19" s="23" t="s">
         <v>16</v>
       </c>
@@ -2849,7 +3627,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="60" customHeight="1">
       <c r="A20" s="23" t="s">
         <v>72</v>
       </c>
@@ -2863,7 +3641,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="69.95" customHeight="1">
       <c r="A21" s="23" t="s">
         <v>194</v>
       </c>
@@ -2877,7 +3655,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="69.95" customHeight="1">
       <c r="A22" s="23" t="s">
         <v>196</v>
       </c>
@@ -2891,7 +3669,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="60" customHeight="1">
       <c r="A23" s="23" t="s">
         <v>88</v>
       </c>
@@ -2905,23 +3683,23 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="60" customHeight="1">
       <c r="A24" s="23" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="60" customHeight="1">
       <c r="A25" s="23" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>19</v>
@@ -2930,52 +3708,52 @@
         <v>3</v>
       </c>
       <c r="D25" s="19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="60" customHeight="1">
+      <c r="A26" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="60" customHeight="1">
+      <c r="A27" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="69.75">
+      <c r="A28" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="23" t="s">
+      <c r="C28" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A28" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:4" ht="60" customHeight="1">
       <c r="A29" s="23" t="s">
         <v>71</v>
       </c>
@@ -2990,6 +3768,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2999,9 +3778,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25"/>
   <cols>
     <col min="1" max="1" width="70" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="130.85546875" style="12" bestFit="1" customWidth="1"/>
@@ -3012,7 +3793,7 @@
     <col min="7" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="26"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -3024,7 +3805,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="232.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="232.5">
       <c r="A2" s="38" t="s">
         <v>181</v>
       </c>
@@ -3038,7 +3819,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="60" customHeight="1">
       <c r="A3" s="38" t="s">
         <v>183</v>
       </c>
@@ -3052,12 +3833,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="60" customHeight="1">
       <c r="A4" s="38" t="s">
         <v>201</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>3</v>
@@ -3066,7 +3847,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="60" customHeight="1">
       <c r="A5" s="38" t="s">
         <v>2</v>
       </c>
@@ -3080,7 +3861,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="60" customHeight="1">
       <c r="A6" s="40" t="s">
         <v>203</v>
       </c>
@@ -3094,7 +3875,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="60" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>14</v>
       </c>
@@ -3108,7 +3889,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="60" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>15</v>
       </c>
@@ -3122,7 +3903,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="60" customHeight="1">
       <c r="A9" s="38" t="s">
         <v>36</v>
       </c>
@@ -3136,7 +3917,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="60" customHeight="1">
       <c r="A10" s="38" t="s">
         <v>65</v>
       </c>
@@ -3150,7 +3931,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="60" customHeight="1">
       <c r="A11" s="40" t="s">
         <v>68</v>
       </c>
@@ -3164,7 +3945,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="60" customHeight="1">
       <c r="A12" s="40" t="s">
         <v>70</v>
       </c>
@@ -3178,7 +3959,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="60" customHeight="1">
       <c r="A13" s="40" t="s">
         <v>69</v>
       </c>
@@ -3192,9 +3973,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="60" customHeight="1">
       <c r="A14" s="41" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>19</v>
@@ -3203,10 +3984,10 @@
         <v>3</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="60" customHeight="1">
       <c r="A15" s="40" t="s">
         <v>151</v>
       </c>
@@ -3220,7 +4001,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="60" customHeight="1">
       <c r="A16" s="40" t="s">
         <v>150</v>
       </c>
@@ -3234,35 +4015,35 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="60" customHeight="1">
       <c r="A17" s="41" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="60" customHeight="1">
       <c r="A18" s="41" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="60" customHeight="1">
       <c r="A19" s="38" t="s">
         <v>66</v>
       </c>
@@ -3276,7 +4057,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="60" customHeight="1">
       <c r="A20" s="39" t="s">
         <v>67</v>
       </c>
@@ -3290,7 +4071,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="60" customHeight="1">
       <c r="A21" s="40" t="s">
         <v>71</v>
       </c>
@@ -3305,6 +4086,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3314,9 +4096,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25"/>
   <cols>
     <col min="1" max="1" width="51.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="177" style="12" bestFit="1" customWidth="1"/>
@@ -3325,7 +4109,7 @@
     <col min="5" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="9"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -3337,12 +4121,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="162.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="162.75">
       <c r="A2" s="13" t="s">
         <v>181</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -3351,7 +4135,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" s="13" t="s">
         <v>183</v>
       </c>
@@ -3359,7 +4143,7 @@
       <c r="C3" s="15"/>
       <c r="D3" s="27"/>
     </row>
-    <row r="4" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="60" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
@@ -3373,7 +4157,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="162.75" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="162.75">
       <c r="A5" s="13" t="s">
         <v>35</v>
       </c>
@@ -3387,7 +4171,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="60" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>36</v>
       </c>
@@ -3401,7 +4185,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="60" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
@@ -3415,7 +4199,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="60" customHeight="1">
       <c r="A8" s="16" t="s">
         <v>38</v>
       </c>
@@ -3429,7 +4213,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="69.75">
       <c r="A9" s="17" t="s">
         <v>39</v>
       </c>
@@ -3443,7 +4227,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="60" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>40</v>
       </c>
@@ -3457,7 +4241,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="60" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>41</v>
       </c>
@@ -3471,7 +4255,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="60" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>42</v>
       </c>
@@ -3485,7 +4269,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="60" customHeight="1">
       <c r="A13" s="17" t="s">
         <v>43</v>
       </c>
@@ -3499,7 +4283,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="60" customHeight="1">
       <c r="A14" s="17" t="s">
         <v>44</v>
       </c>
@@ -3513,7 +4297,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="60" customHeight="1">
       <c r="A15" s="17" t="s">
         <v>71</v>
       </c>
@@ -3526,19 +4310,20 @@
       <c r="D15" s="27"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25"/>
   <cols>
     <col min="1" max="1" width="62.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="187.42578125" style="12" bestFit="1" customWidth="1"/>
@@ -3547,7 +4332,7 @@
     <col min="5" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="9"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -3559,773 +4344,854 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="93">
       <c r="A2" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="60" customHeight="1">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="37" t="s">
+      <c r="B4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="37" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+    <row r="5" spans="1:4" ht="69.75">
+      <c r="A5" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B5" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="232.5">
+      <c r="A6" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="180.75" customHeight="1">
+      <c r="A7" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60" customHeight="1">
+      <c r="A8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60" customHeight="1">
+      <c r="A9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="60" customHeight="1">
+      <c r="A10" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="60" customHeight="1">
+      <c r="A11" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="60" customHeight="1">
+      <c r="A12" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="60" customHeight="1">
+      <c r="A13" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="60" customHeight="1">
+      <c r="A14" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="60" customHeight="1">
+      <c r="A15" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="93">
+      <c r="A16" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="60" customHeight="1">
+      <c r="A17" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="60" customHeight="1">
+      <c r="A18" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="60" customHeight="1">
+      <c r="A19" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="60" customHeight="1">
+      <c r="A20" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="60" customHeight="1">
+      <c r="A21" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="60" customHeight="1">
+      <c r="A22" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="60" customHeight="1">
+      <c r="A23" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="60" customHeight="1">
+      <c r="A24" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="69.75">
+      <c r="A25" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="232.5">
+      <c r="A26" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="46.5">
+      <c r="A27" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="60" customHeight="1">
+      <c r="A28" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="116.25">
+      <c r="A29" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="60" customHeight="1">
+      <c r="A30" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="60" customHeight="1">
+      <c r="A31" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="60" customHeight="1">
+      <c r="A32" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="60" customHeight="1">
+      <c r="A33" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="60" customHeight="1">
+      <c r="A34" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="60" customHeight="1">
+      <c r="A35" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="60" customHeight="1">
+      <c r="A36" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="60" customHeight="1">
+      <c r="A37" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="60" customHeight="1">
+      <c r="A38" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="60" customHeight="1">
+      <c r="A39" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="60" customHeight="1">
+      <c r="A40" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="60" customHeight="1">
+      <c r="A41" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="19" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="232.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="C41" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="60" customHeight="1">
+      <c r="A42" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="60" customHeight="1">
+      <c r="A43" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="69.75">
+      <c r="A44" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="60" customHeight="1">
+      <c r="A45" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="93">
+      <c r="A46" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="60" customHeight="1">
+      <c r="A47" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="60" customHeight="1">
+      <c r="A48" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="60" customHeight="1">
+      <c r="A49" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="60" customHeight="1">
+      <c r="A50" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="60" customHeight="1">
+      <c r="A51" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="93">
+      <c r="A52" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="C52" s="15"/>
+    </row>
+    <row r="53" spans="1:4" ht="60" customHeight="1">
+      <c r="A53" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="60" customHeight="1">
+      <c r="A54" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="37" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="180.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
-        <v>374</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A20" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="232.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="29" t="s">
+    <row r="55" spans="1:4" ht="60" customHeight="1">
+      <c r="A55" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="60" customHeight="1">
+      <c r="A56" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="60" customHeight="1">
+      <c r="A57" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="60" customHeight="1">
+      <c r="A58" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="60" customHeight="1">
+      <c r="A59" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="37" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="60" customHeight="1">
+      <c r="A60" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="37" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="60" customHeight="1">
+      <c r="A61" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B61" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="116.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="37" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="37" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A39" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="37" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="93" x14ac:dyDescent="0.35">
-      <c r="A41" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="37" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="37" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="37" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="37" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="37" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="37" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="37" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="37" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="37" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="37" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="37" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="37" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="37" t="s">
+      <c r="C61" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="37" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="17" t="s">
+    <row r="62" spans="1:4" ht="60" customHeight="1">
+      <c r="A62" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="15" t="s">
+      <c r="B62" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="15" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4333,9 +5199,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25"/>
   <cols>
     <col min="1" max="1" width="62.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="169" style="12" customWidth="1"/>
@@ -4344,7 +5212,7 @@
     <col min="5" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="26"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -4356,7 +5224,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="60" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
@@ -4370,49 +5238,49 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="186" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="186">
       <c r="A3" s="18" t="s">
         <v>181</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="116.25" x14ac:dyDescent="0.35">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="116.25">
       <c r="A4" s="18" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>183</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>202</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>88</v>
       </c>
@@ -4426,7 +5294,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="60" customHeight="1">
       <c r="A7" s="23" t="s">
         <v>34</v>
       </c>
@@ -4440,7 +5308,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="60" customHeight="1">
       <c r="A8" s="23" t="s">
         <v>14</v>
       </c>
@@ -4454,7 +5322,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="60" customHeight="1">
       <c r="A9" s="23" t="s">
         <v>15</v>
       </c>
@@ -4468,9 +5336,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="60" customHeight="1">
       <c r="A10" s="18" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>19</v>
@@ -4479,10 +5347,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="60" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>241</v>
       </c>
@@ -4496,7 +5364,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="60" customHeight="1">
       <c r="A12" s="18" t="s">
         <v>243</v>
       </c>
@@ -4507,10 +5375,10 @@
         <v>3</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="60" customHeight="1">
       <c r="A13" s="18" t="s">
         <v>73</v>
       </c>
@@ -4524,7 +5392,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="60" customHeight="1">
       <c r="A14" s="18" t="s">
         <v>245</v>
       </c>
@@ -4535,24 +5403,24 @@
         <v>3</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="69.75" x14ac:dyDescent="0.35">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="69.75">
       <c r="A15" s="18" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="60" customHeight="1">
       <c r="A16" s="23" t="s">
         <v>72</v>
       </c>
@@ -4566,7 +5434,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="60" customHeight="1">
       <c r="A17" s="18" t="s">
         <v>33</v>
       </c>
@@ -4580,7 +5448,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="138" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="138" customHeight="1">
       <c r="A18" s="23" t="s">
         <v>32</v>
       </c>
@@ -4594,7 +5462,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="60" customHeight="1">
       <c r="A19" s="23" t="s">
         <v>30</v>
       </c>
@@ -4608,7 +5476,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="60" customHeight="1">
       <c r="A20" s="23" t="s">
         <v>31</v>
       </c>
@@ -4622,7 +5490,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="60" customHeight="1">
       <c r="A21" s="23" t="s">
         <v>28</v>
       </c>
@@ -4636,7 +5504,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="60" customHeight="1">
       <c r="A22" s="23" t="s">
         <v>29</v>
       </c>
@@ -4650,7 +5518,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="60" customHeight="1">
       <c r="A23" s="18" t="s">
         <v>22</v>
       </c>
@@ -4664,7 +5532,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="60" customHeight="1">
       <c r="A24" s="23" t="s">
         <v>25</v>
       </c>
@@ -4678,7 +5546,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="69.75">
       <c r="A25" s="18" t="s">
         <v>20</v>
       </c>
@@ -4692,7 +5560,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="60" customHeight="1">
       <c r="A26" s="18" t="s">
         <v>21</v>
       </c>
@@ -4706,7 +5574,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="60" customHeight="1">
       <c r="A27" s="23" t="s">
         <v>27</v>
       </c>
@@ -4720,7 +5588,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="60" customHeight="1">
       <c r="A28" s="20" t="s">
         <v>23</v>
       </c>
@@ -4734,7 +5602,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="60" customHeight="1">
       <c r="A29" s="23" t="s">
         <v>71</v>
       </c>
@@ -4746,6 +5614,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4756,7 +5625,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="62.7109375" customWidth="1"/>
     <col min="2" max="2" width="159.7109375" style="34" bestFit="1" customWidth="1"/>
@@ -4764,7 +5633,7 @@
     <col min="4" max="4" width="93.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="12" customFormat="1" ht="23.25">
       <c r="A1" s="26"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -4776,7 +5645,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
@@ -4790,7 +5659,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="12" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="12" customFormat="1" ht="139.5">
       <c r="A3" s="23" t="s">
         <v>181</v>
       </c>
@@ -4801,29 +5670,29 @@
         <v>3</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="12" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="12" customFormat="1" ht="116.25">
       <c r="A4" s="23" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>183</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>3</v>
@@ -4832,7 +5701,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A6" s="23" t="s">
         <v>88</v>
       </c>
@@ -4846,7 +5715,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A7" s="23" t="s">
         <v>34</v>
       </c>
@@ -4860,7 +5729,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A8" s="23" t="s">
         <v>14</v>
       </c>
@@ -4871,10 +5740,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A9" s="23" t="s">
         <v>15</v>
       </c>
@@ -4885,12 +5754,12 @@
         <v>9</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A10" s="23" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>19</v>
@@ -4899,10 +5768,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A11" s="23" t="s">
         <v>243</v>
       </c>
@@ -4916,7 +5785,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A12" s="23" t="s">
         <v>241</v>
       </c>
@@ -4930,7 +5799,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A13" s="23" t="s">
         <v>73</v>
       </c>
@@ -4944,7 +5813,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A14" s="23" t="s">
         <v>245</v>
       </c>
@@ -4958,21 +5827,21 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A15" s="23" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A16" s="23" t="s">
         <v>72</v>
       </c>
@@ -4986,7 +5855,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A17" s="23" t="s">
         <v>33</v>
       </c>
@@ -5000,21 +5869,21 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="12" customFormat="1" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" s="12" customFormat="1" ht="69.75">
       <c r="A18" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A19" s="23" t="s">
         <v>30</v>
       </c>
@@ -5028,7 +5897,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A20" s="23" t="s">
         <v>31</v>
       </c>
@@ -5042,7 +5911,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A21" s="23" t="s">
         <v>28</v>
       </c>
@@ -5056,7 +5925,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A22" s="23" t="s">
         <v>29</v>
       </c>
@@ -5070,7 +5939,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A23" s="23" t="s">
         <v>22</v>
       </c>
@@ -5084,9 +5953,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A24" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B24" s="33" t="s">
         <v>11</v>
@@ -5095,10 +5964,10 @@
         <v>3</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A25" s="23" t="s">
         <v>25</v>
       </c>
@@ -5112,21 +5981,21 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A26" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A27" s="23" t="s">
         <v>21</v>
       </c>
@@ -5140,7 +6009,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A28" s="23" t="s">
         <v>27</v>
       </c>
@@ -5154,7 +6023,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A29" s="23" t="s">
         <v>23</v>
       </c>
@@ -5168,7 +6037,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A30" s="23" t="s">
         <v>71</v>
       </c>
@@ -5184,6 +6053,7 @@
   <sortState ref="A2:D28">
     <sortCondition ref="A7"/>
   </sortState>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5192,11 +6062,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="62.7109375" customWidth="1"/>
     <col min="2" max="2" width="159.7109375" style="34" bestFit="1" customWidth="1"/>
@@ -5204,7 +6072,7 @@
     <col min="4" max="4" width="76.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="12" customFormat="1" ht="23.25">
       <c r="A1" s="26"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -5216,7 +6084,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
@@ -5230,12 +6098,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="12" customFormat="1" ht="302.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="12" customFormat="1" ht="302.25">
       <c r="A3" s="23" t="s">
         <v>181</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>3</v>
@@ -5244,7 +6112,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A4" s="23" t="s">
         <v>88</v>
       </c>
@@ -5258,7 +6126,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>34</v>
       </c>
@@ -5272,7 +6140,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A6" s="23" t="s">
         <v>243</v>
       </c>
@@ -5286,7 +6154,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A7" s="23" t="s">
         <v>241</v>
       </c>
@@ -5300,7 +6168,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A8" s="23" t="s">
         <v>245</v>
       </c>
@@ -5314,7 +6182,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A9" s="23" t="s">
         <v>72</v>
       </c>
@@ -5328,21 +6196,21 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="12" customFormat="1" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" s="12" customFormat="1" ht="69.75">
       <c r="A10" s="23" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A11" s="23" t="s">
         <v>30</v>
       </c>
@@ -5356,7 +6224,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A12" s="23" t="s">
         <v>31</v>
       </c>
@@ -5370,7 +6238,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A13" s="23" t="s">
         <v>27</v>
       </c>
@@ -5384,7 +6252,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A14" s="23" t="s">
         <v>23</v>
       </c>
@@ -5398,7 +6266,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A15" s="23" t="s">
         <v>4</v>
       </c>
@@ -5412,9 +6280,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A16" s="23" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>3</v>
@@ -5423,10 +6291,10 @@
         <v>3</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A17" s="23" t="s">
         <v>71</v>
       </c>
@@ -5439,27 +6307,26 @@
       <c r="D17" s="27"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="204.42578125" customWidth="1"/>
     <col min="4" max="4" width="72.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="12" customFormat="1" ht="23.25">
       <c r="A1" s="26"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -5471,7 +6338,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
@@ -5485,12 +6352,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="12" customFormat="1" ht="93">
       <c r="A3" s="23" t="s">
         <v>248</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>343</v>
+        <v>440</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>3</v>
@@ -5499,69 +6366,231 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="12" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="12" customFormat="1" ht="93">
       <c r="A4" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:4" ht="93" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="12" customFormat="1" ht="46.5">
       <c r="A5" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="12" customFormat="1" ht="23.25">
+      <c r="A6" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="12" customFormat="1" ht="46.5">
+      <c r="A7" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="93">
+      <c r="A8" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B8" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C8" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D8" s="36" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+    <row r="9" spans="1:4" ht="46.5">
+      <c r="A9" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="60" customHeight="1">
+      <c r="A10" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B10" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="36" t="s">
+      <c r="C10" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="36" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+    <row r="11" spans="1:4" ht="93">
+      <c r="A11" s="35" t="s">
+        <v>451</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="60" customHeight="1">
+      <c r="A12" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B12" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="C7" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="36" t="s">
+      <c r="C12" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="36" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+    <row r="13" spans="1:4" ht="60" customHeight="1">
+      <c r="A13" s="35" t="s">
+        <v>454</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="60" customHeight="1">
+      <c r="A14" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="60" customHeight="1">
+      <c r="A15" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="60" customHeight="1">
+      <c r="A16" s="35" t="s">
+        <v>458</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="60" customHeight="1">
+      <c r="A17" s="35" t="s">
+        <v>460</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>461</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="60" customHeight="1">
+      <c r="A18" s="35" t="s">
+        <v>462</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="60" customHeight="1">
+      <c r="A19" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="36"/>
+      <c r="B19" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="36"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/Instrument Library Introduction.xlsx
+++ b/Document/Instrument Library Introduction.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13395" windowHeight="4560" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13395" windowHeight="4560"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="6" r:id="rId1"/>
@@ -1921,9 +1921,6 @@
     <t>Set_Burst_Trigger_Delay</t>
   </si>
   <si>
-    <t>&lt;trigger_dealy, float&gt;</t>
-  </si>
-  <si>
     <t>Set burst mode state</t>
   </si>
   <si>
@@ -1931,6 +1928,10 @@
   </si>
   <si>
     <t>Set idle state on burst mode</t>
+  </si>
+  <si>
+    <t>&lt;channel, int&gt;
+&lt;trigger_dealy, float&gt;</t>
   </si>
 </sst>
 </file>
@@ -2631,7 +2632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2878,8 +2879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2969,7 +2970,7 @@
         <v>482</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="12" customFormat="1" ht="46.5">
@@ -2977,13 +2978,13 @@
         <v>486</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>485</v>
+        <v>161</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>482</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="12" customFormat="1" ht="46.5">
@@ -2991,13 +2992,13 @@
         <v>531</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>482</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="12" customFormat="1" ht="69.75">

--- a/Document/Instrument Library Introduction.xlsx
+++ b/Document/Instrument Library Introduction.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13395" windowHeight="4560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13395" windowHeight="4560" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="541">
   <si>
     <t>Parameter</t>
   </si>
@@ -1932,6 +1932,22 @@
   <si>
     <t>&lt;channel, int&gt;
 &lt;trigger_dealy, float&gt;</t>
+  </si>
+  <si>
+    <t>Set_Channel_Termination</t>
+  </si>
+  <si>
+    <t>&lt;channel, int&gt;
+&lt;termination, int&gt; - 10, 1000000</t>
+  </si>
+  <si>
+    <t>Set the termination of the channel</t>
+  </si>
+  <si>
+    <t>Set_Display_Select_Channel</t>
+  </si>
+  <si>
+    <t>Set the display channel</t>
   </si>
 </sst>
 </file>
@@ -2632,7 +2648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4318,10 +4334,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25"/>
@@ -4877,315 +4893,343 @@
     </row>
     <row r="40" spans="1:4" ht="60" customHeight="1">
       <c r="A40" s="13" t="s">
-        <v>75</v>
+        <v>536</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>161</v>
+        <v>537</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>163</v>
+        <v>538</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="60" customHeight="1">
       <c r="A41" s="13" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>307</v>
+        <v>161</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="37" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="60" customHeight="1">
       <c r="A42" s="13" t="s">
-        <v>228</v>
+        <v>55</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>229</v>
+        <v>307</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="37" t="s">
-        <v>322</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="60" customHeight="1">
       <c r="A43" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="60" customHeight="1">
+      <c r="A44" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B44" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="37" t="s">
+      <c r="C44" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="37" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="69.75">
-      <c r="A44" s="13" t="s">
+    <row r="45" spans="1:4" ht="69.75">
+      <c r="A45" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B45" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="37" t="s">
+      <c r="C45" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="37" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="60" customHeight="1">
-      <c r="A45" s="13" t="s">
+    <row r="46" spans="1:4" ht="60" customHeight="1">
+      <c r="A46" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B46" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="37" t="s">
+      <c r="C46" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="37" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="93">
-      <c r="A46" s="13" t="s">
+    <row r="47" spans="1:4" ht="93">
+      <c r="A47" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B47" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="37" t="s">
+      <c r="C47" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="37" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="60" customHeight="1">
-      <c r="A47" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="37" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="60" customHeight="1">
       <c r="A48" s="13" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D48" s="37" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="60" customHeight="1">
       <c r="A49" s="13" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>19</v>
+        <v>398</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D49" s="37" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="60" customHeight="1">
       <c r="A50" s="13" t="s">
-        <v>46</v>
+        <v>400</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>309</v>
+        <v>19</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D50" s="37" t="s">
-        <v>164</v>
+        <v>401</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="60" customHeight="1">
       <c r="A51" s="13" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>19</v>
+        <v>309</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D51" s="37" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="93">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="60" customHeight="1">
       <c r="A52" s="13" t="s">
-        <v>437</v>
+        <v>539</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="C52" s="15"/>
+        <v>187</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="60" customHeight="1">
       <c r="A53" s="13" t="s">
-        <v>402</v>
+        <v>74</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="60" customHeight="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="93">
       <c r="A54" s="13" t="s">
-        <v>51</v>
+        <v>437</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="37" t="s">
-        <v>324</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="C54" s="15"/>
     </row>
     <row r="55" spans="1:4" ht="60" customHeight="1">
       <c r="A55" s="13" t="s">
-        <v>230</v>
+        <v>402</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>303</v>
+        <v>187</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D55" s="37" t="s">
-        <v>325</v>
+        <v>403</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="60" customHeight="1">
       <c r="A56" s="13" t="s">
-        <v>231</v>
+        <v>51</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>232</v>
+        <v>52</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>170</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="60" customHeight="1">
       <c r="A57" s="13" t="s">
-        <v>56</v>
+        <v>230</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>57</v>
+        <v>303</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="60" customHeight="1">
       <c r="A58" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="60" customHeight="1">
+      <c r="A59" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="37" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="60" customHeight="1">
+      <c r="A60" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B60" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="C58" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="37" t="s">
+      <c r="C60" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="37" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="60" customHeight="1">
-      <c r="A59" s="16" t="s">
+    <row r="61" spans="1:4" ht="60" customHeight="1">
+      <c r="A61" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B61" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="C59" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="37" t="s">
+      <c r="C61" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="37" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="60" customHeight="1">
-      <c r="A60" s="31" t="s">
+    <row r="62" spans="1:4" ht="60" customHeight="1">
+      <c r="A62" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B62" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="C60" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="37" t="s">
+      <c r="C62" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="37" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="60" customHeight="1">
-      <c r="A61" s="17" t="s">
+    <row r="63" spans="1:4" ht="60" customHeight="1">
+      <c r="A63" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B63" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="C61" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="37" t="s">
+      <c r="C63" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="37" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="60" customHeight="1">
-      <c r="A62" s="17" t="s">
+    <row r="64" spans="1:4" ht="60" customHeight="1">
+      <c r="A64" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="15" t="s">
+      <c r="B64" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="15" t="s">
         <v>3</v>
       </c>
     </row>
